--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2101.299068771757</v>
+        <v>418158.5146855797</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2101.299068771757</v>
+        <v>418158.5146855797</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85447.52237311503</v>
+        <v>5836762.799593702</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85447.52237311503</v>
+        <v>5836762.799593702</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1114091100.641833</v>
+        <v>43053409.90622769</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13438.41901677244</v>
+        <v>1255795.488091088</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24344.80879388642</v>
+        <v>2069909.298230309</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35258.39619977398</v>
+        <v>2884023.108369531</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46386.68663933199</v>
+        <v>3697320.947073837</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57514.97707889</v>
+        <v>4510618.785778142</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68643.26751844799</v>
+        <v>5323916.624482447</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79771.54433044548</v>
+        <v>6137214.463186748</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90899.83477000351</v>
+        <v>6950512.301891049</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102142.6818836771</v>
+        <v>7719871.196744953</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>113463.5772484764</v>
+        <v>8504761.693572892</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124784.4726132758</v>
+        <v>9289652.190400831</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136105.3576663175</v>
+        <v>10074542.68722877</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147426.2530311169</v>
+        <v>10859433.18405672</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>158747.1483959162</v>
+        <v>11644323.68088467</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170068.0437607158</v>
+        <v>12429214.17771262</v>
       </c>
     </row>
   </sheetData>
